--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mariana Bulos\Dropbox\InputData\elec\BPaFF\MEX\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,12 +16,12 @@
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="42">
   <si>
     <t>Source:</t>
   </si>
@@ -138,6 +138,15 @@
   </si>
   <si>
     <t>offshore wind</t>
+  </si>
+  <si>
+    <t>crude oil</t>
+  </si>
+  <si>
+    <t>heavy or residual fuel oil</t>
+  </si>
+  <si>
+    <t>municipal solid waste</t>
   </si>
 </sst>
 </file>
@@ -181,11 +190,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -204,7 +216,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -279,23 +291,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -331,23 +326,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -528,7 +506,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -673,17 +651,17 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -790,6 +768,33 @@
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>
@@ -803,17 +808,17 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
@@ -920,6 +925,33 @@
       </c>
       <c r="B14">
         <f>B6</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16">
+        <f>B11</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17">
+        <f>B9</f>
         <v>0</v>
       </c>
     </row>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipE\InputData\elec\BPaFF\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/BPaFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC860AF-A1DA-6E4A-81F3-467E0747FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="135" windowWidth="23955" windowHeight="10305"/>
+    <workbookView xWindow="120" yWindow="500" windowWidth="23960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="BPaFF-BITPTaP" sheetId="2" r:id="rId2"/>
     <sheet name="BPaFF-BDTPTPF" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -152,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -291,6 +303,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -326,6 +355,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -501,24 +547,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,116 +574,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -647,7 +695,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -655,17 +703,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -673,7 +721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -681,7 +729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -689,7 +737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -697,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -705,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -713,7 +761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -721,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -729,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -737,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -745,7 +793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -753,7 +801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -762,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -771,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -780,7 +828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -789,7 +837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -804,7 +852,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -812,17 +860,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -830,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -838,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -846,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -854,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -862,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -870,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -878,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -886,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -894,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -902,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -910,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -919,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -928,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -937,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -946,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>41</v>
       </c>

--- a/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
+++ b/InputData/elec/BPaFF/Boolean Peaking and Flexibility Flags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anaxolt/Google Drive/2021/D.Development/TARGET_eps-us-3.2.1/InputData/elec/BPaFF/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\robbie\Dropbox (Energy Innovation)\My Documents\Energy Policy Solutions\Mexico\Models\eps-mexico\InputData\elec\BPaFF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDC860AF-A1DA-6E4A-81F3-467E0747FB1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969A6B8-171E-4180-9627-55366D48E04A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="500" windowWidth="23960" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -550,23 +550,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,116 +574,116 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>34</v>
       </c>
@@ -701,19 +701,21 @@
   </sheetPr>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -721,7 +723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -729,7 +731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -737,7 +739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -745,7 +747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -753,7 +755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -761,7 +763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -769,7 +771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -777,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -785,7 +787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -793,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -801,7 +803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -810,7 +812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -819,25 +821,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
       <c r="B15">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
       <c r="B16">
-        <f>B11</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
@@ -860,17 +860,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>36</v>
       </c>
@@ -878,7 +878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -886,7 +886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -902,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -910,7 +910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -967,7 +967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>38</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>39</v>
       </c>
@@ -985,7 +985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>40</v>
       </c>
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>41</v>
       </c>
